--- a/Project/01_data-input/wiiw/emp.xlsx
+++ b/Project/01_data-input/wiiw/emp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1796E00-D3CE-4380-AA00-BDE1C8770461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB8D57-95EC-4DAD-A141-6C18C6144213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6569" uniqueCount="119">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -566,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,8 +876,8 @@
   <dimension ref="A1:AG153"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -29037,8 +29040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31726168-3726-4DEF-87F6-0486CC8AB0E7}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -29153,23 +29156,23 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+      <c r="K2" s="24">
+        <v>811</v>
+      </c>
+      <c r="L2" s="24">
+        <v>849.6</v>
+      </c>
+      <c r="M2" s="24">
+        <v>890.23900000000003</v>
+      </c>
+      <c r="N2" s="24">
+        <v>859.21799999999996</v>
+      </c>
+      <c r="O2" s="24">
+        <v>842.83100000000002</v>
+      </c>
+      <c r="P2" s="24">
+        <v>816.03599999999994</v>
       </c>
       <c r="Q2">
         <v>813.68299999999999</v>

--- a/Project/01_data-input/wiiw/emp.xlsx
+++ b/Project/01_data-input/wiiw/emp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB8D57-95EC-4DAD-A141-6C18C6144213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E2020C-B2A2-4A7C-9A32-A7767EBB11C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6569" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="119">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,6 +569,17 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG153"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X50" sqref="X50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15407,9 +15418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9039C8-3CB9-4FE6-A8DE-E9D02935324D}">
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T141" sqref="T141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15419,83 +15430,84 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="7" customWidth="1"/>
+    <col min="6" max="25" width="9.5" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="25">
         <v>2000</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="25">
         <v>2001</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="25">
         <v>2002</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="25">
         <v>2003</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="25">
         <v>2004</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="25">
         <v>2005</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="25">
         <v>2006</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="25">
         <v>2007</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="25">
         <v>2008</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="25">
         <v>2009</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="25">
         <v>2010</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="25">
         <v>2011</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="25">
         <v>2012</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="25">
         <v>2013</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="25">
         <v>2014</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="25">
         <v>2015</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="25">
         <v>2016</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="25">
         <v>2017</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="25">
         <v>2018</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="25">
         <v>2019</v>
       </c>
     </row>
@@ -15592,7 +15604,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>24</v>
@@ -15975,6 +15987,9 @@
       </c>
       <c r="B8" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>100</v>
@@ -16049,11 +16064,11 @@
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>24</v>
@@ -16361,6 +16376,9 @@
       </c>
       <c r="B13" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>101</v>
@@ -16435,11 +16453,11 @@
       <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>24</v>
@@ -16510,11 +16528,11 @@
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>24</v>
@@ -16593,6 +16611,9 @@
       </c>
       <c r="B16" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>102</v>
@@ -16635,10 +16656,7 @@
         <f t="shared" si="8"/>
         <v>20.832000000000001</v>
       </c>
-      <c r="T16" s="21">
-        <f>T39</f>
-        <v>23.98</v>
-      </c>
+      <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -16805,6 +16823,9 @@
       </c>
       <c r="B19" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>113</v>
@@ -17089,6 +17110,9 @@
       <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="20" t="s">
         <v>103</v>
       </c>
@@ -17470,6 +17494,9 @@
       <c r="B28" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="20" t="s">
         <v>104</v>
       </c>
@@ -17508,12 +17535,12 @@
         <v>31.259</v>
       </c>
       <c r="S28" s="21">
-        <f t="shared" si="13"/>
+        <f>S43+S44+S45</f>
         <v>32.033000000000001</v>
       </c>
       <c r="T28" s="21">
-        <f>T24+T25+T26+T27</f>
-        <v>51.039000000000001</v>
+        <f>T43+T44+T45</f>
+        <v>34.103000000000002</v>
       </c>
       <c r="U28" s="21">
         <f t="shared" ref="U28:Y28" si="14">U24+U25+U26+U27</f>
@@ -21858,19 +21885,19 @@
         <v>72</v>
       </c>
       <c r="O84" s="21">
-        <f t="shared" si="25"/>
+        <f>SUM(O106:O108)</f>
         <v>81</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="25"/>
+        <f>SUM(Q106:Q108)</f>
         <v>81.01100000000001</v>
       </c>
       <c r="R84" s="21">
-        <f>SUM(R81:R83)</f>
-        <v>65.644999999999996</v>
+        <f>SUM(R106:R108)</f>
+        <v>73</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" ref="S84:Y84" si="26">SUM(S81:S83)</f>
@@ -22611,14 +22638,14 @@
         <v>79</v>
       </c>
       <c r="O94" s="21">
-        <f t="shared" si="30"/>
+        <f>SUM(O111:O113)</f>
         <v>88</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q94" s="21">
-        <f t="shared" si="30"/>
+        <f>SUM(Q111:Q113)</f>
         <v>81.811000000000007</v>
       </c>
       <c r="R94" s="21">
@@ -22971,35 +22998,35 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21">
-        <f>SUM(J113:J114)</f>
-        <v>29</v>
+        <f>J114</f>
+        <v>17</v>
       </c>
       <c r="K99" s="21">
-        <f t="shared" ref="K99:O99" si="32">SUM(K113:K114)</f>
-        <v>43</v>
+        <f t="shared" ref="K99:N99" si="32">K114</f>
+        <v>28</v>
       </c>
       <c r="L99" s="21">
         <f t="shared" si="32"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M99" s="21">
         <f t="shared" si="32"/>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N99" s="21">
         <f t="shared" si="32"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="O99" s="21">
-        <f t="shared" si="32"/>
-        <v>41</v>
+        <f>O114</f>
+        <v>21</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q99" s="21">
-        <f>SUM(Q113:Q116)</f>
-        <v>38.18</v>
+        <f>SUM(Q114:Q116)</f>
+        <v>21.681000000000001</v>
       </c>
       <c r="R99" s="21">
         <f>SUM(R95:R98)</f>
@@ -26145,7 +26172,7 @@
         <v>247.1</v>
       </c>
       <c r="S138" s="21">
-        <f t="shared" si="44"/>
+        <f>SUM(S157:S159)</f>
         <v>235.6</v>
       </c>
       <c r="T138" s="21">
@@ -26502,56 +26529,56 @@
         <v>36.799999999999997</v>
       </c>
       <c r="G143" s="21">
-        <f t="shared" ref="G143:S143" si="46">SUM(G160:G162)</f>
-        <v>31.499999999999684</v>
+        <f t="shared" ref="G143:S143" si="46">SUM(G160:G161)</f>
+        <v>31.400000000000002</v>
       </c>
       <c r="H143" s="21">
         <f t="shared" si="46"/>
-        <v>31.39999999999991</v>
+        <v>31.3</v>
       </c>
       <c r="I143" s="21">
         <f t="shared" si="46"/>
-        <v>32.29999999999977</v>
+        <v>31.799999999999997</v>
       </c>
       <c r="J143" s="21">
         <f t="shared" si="46"/>
-        <v>34.399999999999864</v>
+        <v>34</v>
       </c>
       <c r="K143" s="21">
         <f t="shared" si="46"/>
-        <v>36.499999999999773</v>
+        <v>36</v>
       </c>
       <c r="L143" s="21">
         <f t="shared" si="46"/>
-        <v>43.399999999999686</v>
+        <v>42.300000000000004</v>
       </c>
       <c r="M143" s="21">
-        <f>SUM(M160:M162)</f>
-        <v>44.200000000000088</v>
+        <f t="shared" si="46"/>
+        <v>43.3</v>
       </c>
       <c r="N143" s="21">
         <f t="shared" si="46"/>
-        <v>41.999999999999865</v>
+        <v>41.1</v>
       </c>
       <c r="O143" s="21">
         <f t="shared" si="46"/>
-        <v>40.499999999999908</v>
+        <v>40.4</v>
       </c>
       <c r="P143" s="21">
         <f t="shared" si="46"/>
-        <v>39.900000000000048</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="Q143" s="21">
         <f t="shared" si="46"/>
-        <v>41.00000000000005</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="R143" s="21">
         <f t="shared" si="46"/>
-        <v>40.600000000000094</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="S143" s="21">
-        <f t="shared" si="46"/>
-        <v>41.350000000000044</v>
+        <f>SUM(S160:S161)</f>
+        <v>41.15</v>
       </c>
       <c r="T143" s="21">
         <f>SUM(T139:T142)</f>
@@ -28050,10 +28077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E42B60-83D2-4D9F-9DD7-04860BF02B73}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="A15" sqref="A15:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28166,43 +28193,43 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="29">
         <v>1197.684</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="29">
         <v>1123.3</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="29">
         <v>1160.5</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="29">
         <v>1167.376</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="29">
         <v>1160.4770000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="29">
         <v>1140.097</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="29">
         <v>1023.688</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="29">
         <v>1037.0609999999999</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="29">
         <v>1086.6120000000001</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="29">
         <v>1157.1769999999999</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="29">
         <v>1194.9690000000001</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="29">
         <v>1230.8520000000001</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="29">
         <v>1265.5820000000001</v>
       </c>
     </row>
@@ -28240,43 +28267,43 @@
       <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="29">
         <v>573.65800000000002</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="29">
         <v>502.11</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="29">
         <v>511.22300000000001</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="29">
         <v>491.36200000000002</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="29">
         <v>526.41200000000003</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="29">
         <v>526.37300000000005</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="29">
         <v>452.65199999999999</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="29">
         <v>436.25200000000001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="29">
         <v>449.40699999999998</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="29">
         <v>465.68599999999998</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="29">
         <v>456.46100000000001</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="29">
         <v>459.77800000000002</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="29">
         <v>460.87799999999999</v>
       </c>
     </row>
@@ -28314,43 +28341,43 @@
       <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="29">
         <v>125.447</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="29">
         <v>105.59</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="29">
         <v>116.288</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="29">
         <v>124.708</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="29">
         <v>123.184</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="29">
         <v>103.19799999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="29">
         <v>99.006</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="29">
         <v>116.25300000000001</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="29">
         <v>126.52799999999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="29">
         <v>147.89600000000002</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="29">
         <v>149.12199999999999</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="29">
         <v>156.596</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="29">
         <v>165.71299999999999</v>
       </c>
     </row>
@@ -28388,43 +28415,43 @@
       <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="29">
         <v>97.533000000000001</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="29">
         <v>94.36</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="29">
         <v>115.15900000000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="29">
         <v>115.66</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="29">
         <v>95.546000000000006</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="29">
         <v>93.102000000000004</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="29">
         <v>73.116</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="29">
         <v>66.936999999999998</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="29">
         <v>75.236999999999995</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="29">
         <v>75.742999999999995</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="29">
         <v>82.14</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="29">
         <v>86.155000000000001</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="29">
         <v>89.066999999999993</v>
       </c>
     </row>
@@ -28462,43 +28489,43 @@
       <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="29">
         <v>214.45299999999997</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="29">
         <v>212.29999999999998</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="29">
         <v>211.14400000000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="29">
         <v>223.53800000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="29">
         <v>211.21</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="29">
         <v>224</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="29">
         <v>191.43600000000001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="29">
         <v>169.215</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="29">
         <v>198.58300000000003</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="29">
         <v>214.84800000000001</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="29">
         <v>230.81400000000002</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="29">
         <v>243.80700000000002</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="29">
         <v>261.91500000000002</v>
       </c>
     </row>
@@ -28536,43 +28563,43 @@
       <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7">
+      <c r="L7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="29">
         <v>13.468</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="29">
         <v>8.24</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="29">
         <v>14.859</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="29">
         <v>10.824</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="29">
         <v>12.541</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="29">
         <v>13.682</v>
       </c>
     </row>
@@ -28610,43 +28637,43 @@
       <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="29">
         <v>8.3409999999999993</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="29">
         <v>8.99</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="29">
         <v>10.311</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="29">
         <v>9.8239999999999998</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="29">
         <v>9.6989999999999998</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="29">
         <v>6.524</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="29">
         <v>11.029</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="29">
         <v>10.43</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="29">
         <v>10.561</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="29">
         <v>11.651</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="29">
         <v>10.984</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="29">
         <v>10.722</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="29">
         <v>13.035</v>
       </c>
     </row>
@@ -28684,43 +28711,43 @@
       <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="29">
         <v>10.632999999999999</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="29">
         <v>11.23</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="29">
         <v>16.135000000000002</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="29">
         <v>11.927</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="29">
         <v>14.127000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="29">
         <v>15.59</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="29">
         <v>20.832000000000001</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="29">
         <v>23.98</v>
       </c>
-      <c r="T9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="T9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -28758,43 +28785,43 @@
       <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10">
+      <c r="L10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="29">
         <v>33.619999999999997</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="29">
         <v>30.908999999999999</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="29">
         <v>39.711999999999996</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="29">
         <v>45.526000000000003</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="29">
         <v>48.742999999999995</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="29">
         <v>54.368000000000002</v>
       </c>
     </row>
@@ -28829,55 +28856,55 @@
       <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="29">
         <f>SUM(L9:L10)</f>
         <v>10.632999999999999</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="29">
         <f t="shared" ref="M11:X11" si="0">SUM(M9:M10)</f>
         <v>11.23</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>16.135000000000002</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="29">
         <f t="shared" si="0"/>
         <v>11.927</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="29">
         <f t="shared" si="0"/>
         <v>14.127000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="29">
         <f t="shared" si="0"/>
         <v>15.59</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="29">
         <f t="shared" si="0"/>
         <v>20.832000000000001</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="29">
         <f>SUM(S9)</f>
         <v>23.98</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="29">
         <f t="shared" si="0"/>
         <v>30.908999999999999</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="29">
         <f t="shared" si="0"/>
         <v>39.711999999999996</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="29">
         <f t="shared" si="0"/>
         <v>45.526000000000003</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="29">
         <f t="shared" si="0"/>
         <v>48.742999999999995</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="29">
         <f t="shared" si="0"/>
         <v>54.368000000000002</v>
       </c>
@@ -28916,43 +28943,43 @@
       <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="29">
         <v>139.614</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="29">
         <v>155.01999999999998</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="29">
         <v>148.15100000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="29">
         <v>150.47799999999998</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="29">
         <v>141.50200000000001</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="29">
         <v>140.328</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="29">
         <v>145.62700000000001</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="29">
         <v>139.84700000000001</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="29">
         <v>152.672</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="29">
         <v>150.982</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="29">
         <v>168.52199999999999</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="29">
         <v>168.548</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="29">
         <v>166.446</v>
       </c>
     </row>
@@ -28990,45 +29017,309 @@
       <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="29">
         <v>28.004999999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="29">
         <v>33.700000000000003</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="29">
         <v>32.131</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="29">
         <v>39.878999999999998</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="29">
         <v>38.796999999999997</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="29">
         <v>31.259</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="29">
         <v>32.033000000000001</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="29">
         <v>51.039000000000001</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="29">
         <v>34.475000000000001</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="29">
         <v>35.800000000000004</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="29">
         <v>40.576000000000001</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="29">
         <v>43.961999999999996</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="29">
         <v>40.477999999999994</v>
       </c>
+    </row>
+    <row r="16" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+    </row>
+    <row r="17" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+    </row>
+    <row r="18" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+    </row>
+    <row r="19" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+    </row>
+    <row r="20" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+    </row>
+    <row r="21" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+    </row>
+    <row r="23" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+    </row>
+    <row r="24" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+    </row>
+    <row r="25" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+    </row>
+    <row r="26" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+    </row>
+    <row r="27" spans="5:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -29040,8 +29331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31726168-3726-4DEF-87F6-0486CC8AB0E7}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30366,8 +30657,8 @@
       <c r="P18">
         <v>81.01100000000001</v>
       </c>
-      <c r="Q18">
-        <v>65.644999999999996</v>
+      <c r="Q18" s="29">
+        <v>73</v>
       </c>
       <c r="R18">
         <v>72.462999999999994</v>
@@ -30855,30 +31146,30 @@
         <v>27</v>
       </c>
       <c r="I25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J25">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K25">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N25">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
         <v>27</v>
       </c>
-      <c r="P25">
-        <v>38.18</v>
-      </c>
-      <c r="Q25">
+      <c r="P25" s="29">
+        <v>21.681000000000001</v>
+      </c>
+      <c r="Q25" s="29">
         <v>29.614000000000001</v>
       </c>
       <c r="R25">
